--- a/data/trans_orig/POLIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5E1AE8-924C-4744-A7BC-A7FFE2DF3408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C758C3A-750E-481D-94BD-954FBF0C7903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ECF9F33-EB1F-4E4E-BF3A-3B95566A0D16}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C513843C-B2A4-48D4-988B-496533CCE981}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="252">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -158,61 +158,61 @@
     <t>26,94%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>40,12%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>34,57%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>5,08%</t>
   </si>
   <si>
     <t>7,37%</t>
@@ -221,19 +221,19 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -242,133 +242,133 @@
     <t>92,63%</t>
   </si>
   <si>
-    <t>94,97%</t>
+    <t>94,92%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
@@ -377,436 +377,424 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>18,87%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>81,13%</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA6E60C-054A-4A24-8A9A-26DA14EB1A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1DD0A5-C291-458E-961A-C2F6C7DA8B4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FCAAA-D72F-47DE-A338-30382530A00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7992B75D-98CC-4985-8C90-BE588ABB281C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAC724C-EDEE-4AF1-849D-759A0B5DFCEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA6AE9-64A3-44BE-83C0-8EA7B2775052}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,10 +3160,10 @@
         <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3184,13 +3172,13 @@
         <v>54425</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3193,13 @@
         <v>524511</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -3220,13 +3208,13 @@
         <v>517090</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -3235,13 +3223,13 @@
         <v>1041601</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3297,13 @@
         <v>313517</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>609</v>
@@ -3324,13 +3312,13 @@
         <v>692642</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>920</v>
@@ -3339,13 +3327,13 @@
         <v>1006159</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3348,13 @@
         <v>3064101</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>2717</v>
@@ -3375,13 +3363,13 @@
         <v>2839458</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>5621</v>
@@ -3390,13 +3378,13 @@
         <v>5903559</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE93949-3B3B-4A05-B71D-79A5F71DE957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455D109-8DE8-4A9A-805E-B1714B06C523}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3488,7 +3476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3595,13 +3583,13 @@
         <v>151601</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>678</v>
@@ -3610,13 +3598,13 @@
         <v>381674</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>883</v>
@@ -3625,13 +3613,13 @@
         <v>533275</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3634,13 @@
         <v>390033</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>749</v>
@@ -3661,13 +3649,13 @@
         <v>454279</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>1235</v>
@@ -3676,13 +3664,13 @@
         <v>844311</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3738,13 @@
         <v>217339</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>593</v>
@@ -3765,13 +3753,13 @@
         <v>387472</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>827</v>
@@ -3780,13 +3768,13 @@
         <v>604812</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,28 +3789,28 @@
         <v>1944683</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>2328</v>
       </c>
       <c r="I8" s="7">
-        <v>1862048</v>
+        <v>1862049</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>4086</v>
@@ -3831,13 +3819,13 @@
         <v>3806731</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,7 +3852,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3905,13 +3893,13 @@
         <v>48810</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3920,13 +3908,13 @@
         <v>99180</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -3935,13 +3923,13 @@
         <v>147990</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3944,13 @@
         <v>624229</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -3971,13 +3959,13 @@
         <v>614706</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>1483</v>
@@ -3986,13 +3974,13 @@
         <v>1238936</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4048,13 @@
         <v>417750</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>1421</v>
@@ -4075,13 +4063,13 @@
         <v>868327</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>1912</v>
@@ -4090,13 +4078,13 @@
         <v>1286077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,16 +4096,16 @@
         <v>2873</v>
       </c>
       <c r="D14" s="7">
-        <v>2958945</v>
+        <v>2958944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>3931</v>
@@ -4126,28 +4114,28 @@
         <v>2931033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>6804</v>
       </c>
       <c r="N14" s="7">
-        <v>5889978</v>
+        <v>5889977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,7 +4147,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4189,7 +4177,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C758C3A-750E-481D-94BD-954FBF0C7903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A29D2572-44A7-432C-BAE6-84859C57320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C513843C-B2A4-48D4-988B-496533CCE981}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A980176F-A67E-4E8F-A69C-C7F7AAF43390}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -158,10 +158,10 @@
     <t>26,94%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>40,12%</t>
@@ -170,31 +170,31 @@
     <t>37,52%</t>
   </si>
   <si>
-    <t>42,93%</t>
+    <t>43,26%</t>
   </si>
   <si>
     <t>34,57%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>57,07%</t>
+    <t>56,74%</t>
   </si>
   <si>
     <t>62,48%</t>
@@ -203,28 +203,28 @@
     <t>65,43%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>8,66%</t>
@@ -233,31 +233,31 @@
     <t>7,74%</t>
   </si>
   <si>
-    <t>9,72%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,28%</t>
+    <t>90,4%</t>
   </si>
   <si>
     <t>92,26%</t>
@@ -266,136 +266,136 @@
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>28,95%</t>
+    <t>28,94%</t>
   </si>
   <si>
     <t>33,54%</t>
@@ -404,19 +404,19 @@
     <t>79,38%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>68,83%</t>
@@ -425,163 +425,169 @@
     <t>66,46%</t>
   </si>
   <si>
-    <t>71,05%</t>
+    <t>71,06%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>91,69%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
@@ -701,9 +707,6 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
     <t>13,89%</t>
   </si>
   <si>
@@ -723,9 +726,6 @@
   </si>
   <si>
     <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
   </si>
   <si>
     <t>94,5%</t>
@@ -1206,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1DD0A5-C291-458E-961A-C2F6C7DA8B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC88CF5-CA52-489F-84B5-48275FAEB0BF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1533,7 +1533,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1584,7 +1584,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1843,7 +1843,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1873,7 +1873,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1894,7 +1894,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1924,7 +1924,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7992B75D-98CC-4985-8C90-BE588ABB281C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAF417-50F9-40A3-88B2-B530D515A214}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA6AE9-64A3-44BE-83C0-8EA7B2775052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D07A22-186A-4685-AEFA-83BE8AF3B25D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3160,10 +3160,10 @@
         <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3172,13 +3172,13 @@
         <v>54425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3193,13 @@
         <v>524511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -3208,13 +3208,13 @@
         <v>517090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>979</v>
@@ -3223,13 +3223,13 @@
         <v>1041601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>313517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>609</v>
@@ -3312,13 +3312,13 @@
         <v>692642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>920</v>
@@ -3327,13 +3327,13 @@
         <v>1006159</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3348,13 @@
         <v>3064101</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>2717</v>
@@ -3363,13 +3363,13 @@
         <v>2839458</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>5621</v>
@@ -3378,13 +3378,13 @@
         <v>5903559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455D109-8DE8-4A9A-805E-B1714B06C523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977CB406-96B0-4D7A-B9F8-DC45D1B9FA53}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3476,7 +3476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3583,13 +3583,13 @@
         <v>151601</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>678</v>
@@ -3598,13 +3598,13 @@
         <v>381674</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>883</v>
@@ -3613,13 +3613,13 @@
         <v>533275</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3634,13 @@
         <v>390033</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>749</v>
@@ -3649,13 +3649,13 @@
         <v>454279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>1235</v>
@@ -3664,13 +3664,13 @@
         <v>844311</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3738,13 @@
         <v>217339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>593</v>
@@ -3753,13 +3753,13 @@
         <v>387472</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>827</v>
@@ -3768,13 +3768,13 @@
         <v>604812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3789,13 @@
         <v>1944683</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>2328</v>
@@ -3804,13 +3804,13 @@
         <v>1862049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>4086</v>
@@ -3819,13 +3819,13 @@
         <v>3806731</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3893,13 @@
         <v>48810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3908,13 +3908,13 @@
         <v>99180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -3923,13 +3923,13 @@
         <v>147990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,10 +3944,10 @@
         <v>624229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>229</v>

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A29D2572-44A7-432C-BAE6-84859C57320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69799725-355D-44F1-82F4-1DF63DFCC37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A980176F-A67E-4E8F-A69C-C7F7AAF43390}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E37FC115-E4ED-4EDC-9F65-07C3FFF09B73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="256">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -158,7 +158,7 @@
     <t>26,94%</t>
   </si>
   <si>
-    <t>24,1%</t>
+    <t>24,24%</t>
   </si>
   <si>
     <t>29,85%</t>
@@ -167,19 +167,19 @@
     <t>40,12%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>34,57%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>73,06%</t>
@@ -188,25 +188,25 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>75,9%</t>
+    <t>75,76%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
   </si>
   <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -215,31 +215,31 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>7,37%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>92,63%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -248,127 +248,127 @@
     <t>88,53%</t>
   </si>
   <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
@@ -380,31 +380,31 @@
     <t>17,75%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>23,5%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>76,61%</t>
+    <t>76,5%</t>
   </si>
   <si>
     <t>82,25%</t>
@@ -413,91 +413,91 @@
     <t>60,82%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -506,31 +506,31 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>93,55%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>96,34%</t>
@@ -539,55 +539,55 @@
     <t>9,28%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
@@ -596,205 +596,217 @@
     <t>27,99%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
   </si>
   <si>
     <t>38,71%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
   </si>
   <si>
     <t>61,29%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>86,29%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,5%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>94,5%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>18,87%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>81,13%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC88CF5-CA52-489F-84B5-48275FAEB0BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC7A12A-50D3-49C2-9A10-9C560A783FA0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1533,7 +1545,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1584,7 +1596,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1843,7 +1855,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1873,7 +1885,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1894,7 +1906,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1924,7 +1936,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAF417-50F9-40A3-88B2-B530D515A214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C9208D-89FE-45FD-83D8-55C17E143D72}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D07A22-186A-4685-AEFA-83BE8AF3B25D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17168E99-6128-4FFB-BD95-169E9A49FC6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977CB406-96B0-4D7A-B9F8-DC45D1B9FA53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3679ADBC-FE28-44DE-AB67-C61D289CBE33}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3813,7 @@
         <v>2328</v>
       </c>
       <c r="I8" s="7">
-        <v>1862049</v>
+        <v>1862048</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>214</v>
@@ -3852,7 +3864,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3899,7 +3911,7 @@
         <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3908,13 +3920,13 @@
         <v>99180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -3923,13 +3935,13 @@
         <v>147990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3956,13 @@
         <v>624229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -3959,13 +3971,13 @@
         <v>614706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>1483</v>
@@ -3974,13 +3986,13 @@
         <v>1238936</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4060,13 @@
         <v>417750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>1421</v>
@@ -4063,13 +4075,13 @@
         <v>868327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>1912</v>
@@ -4078,13 +4090,13 @@
         <v>1286077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,16 +4108,16 @@
         <v>2873</v>
       </c>
       <c r="D14" s="7">
-        <v>2958944</v>
+        <v>2958945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>3931</v>
@@ -4114,28 +4126,28 @@
         <v>2931033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>6804</v>
       </c>
       <c r="N14" s="7">
-        <v>5889977</v>
+        <v>5889978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4159,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4177,7 +4189,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
